--- a/public/excel/Template HR Module.xlsx
+++ b/public/excel/Template HR Module.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552FD7C-417A-4720-A14E-9E6CD23E8EDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,19 +46,19 @@
     <t>Test</t>
   </si>
   <si>
-    <t>motocycle</t>
-  </si>
-  <si>
     <t>456 xyz, phuong abc, quan edf, tp.hcm</t>
   </si>
   <si>
     <t>123 ten lua, phuong an lac, quan binh tan, tp.hcm</t>
+  </si>
+  <si>
+    <t>00045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,24 +379,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="3"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -415,9 +416,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>12345</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -426,16 +427,18 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{FE3271D3-0C5F-455A-8669-0FF001B19CED}">
+      <formula1>"Walking,Bicycle,Electric motorcycle,Motorcycle,Electric car,Car,Bus,Companny shuttle bus"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
